--- a/biology/Histoire de la zoologie et de la botanique/Miguel_Vences/Miguel_Vences.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Miguel_Vences/Miguel_Vences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Miguel Vences, né le 24 avril 1969 à Cologne, est un herpétologiste allemand.
-Il est le fils du philosophe galicien (Galice, Espagne) Sergio Vences Fernández (1936-2012)[1].
+Il est le fils du philosophe galicien (Galice, Espagne) Sergio Vences Fernández (1936-2012).
 Diplômé de l'université rhénane Frédéric-Guillaume de Bonn, il travaille à l'université technique Carolo-Wilhelmina de Brunswick.
-En 1994, il a fait un exposé sur les amphibiens et reptiles de Madagascar avec Frank Glaw[2].
+En 1994, il a fait un exposé sur les amphibiens et reptiles de Madagascar avec Frank Glaw.
 C'est un spécialiste de l'herpétofaune malgache.
 </t>
         </is>
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,7 +555,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calumma vencesi Andreone, Mattioli, Jesu &amp; Randrianirina, 2001
 Eimeria vencesi Modry, Daszak, Volf, Vesley, Ball &amp; Koudela, 2001
@@ -574,7 +590,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aglyptodactylus laticeps Glaw, Vences, &amp; Böhme, 1998
